--- a/Metadata/Metadata_Database_Table.xlsx
+++ b/Metadata/Metadata_Database_Table.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,17 +438,17 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>database_admin_ID</t>
+          <t>admin_ID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>database_admin_name</t>
+          <t>admin_name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>database_password</t>
+          <t>password</t>
         </is>
       </c>
     </row>
@@ -464,36 +464,6 @@
       <c r="C2" t="inlineStr">
         <is>
           <t>11111111a</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>123456</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>luruyun</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>luruyun</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>12345678</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>luruyun</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>luruyun</t>
         </is>
       </c>
     </row>
@@ -508,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,7 +545,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>db0001234540493227</t>
+          <t>db0001234540907795</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -584,6 +554,21 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>db0001234525337633</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>db_2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>12345</v>
       </c>
     </row>
@@ -653,34 +638,34 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>tb000123454049322735036911</t>
+          <t>tb000123454090779539588310</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>dt</t>
+          <t>my_table</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>db0001234540493227</t>
+          <t>db0001234540907795</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>tb000123454049322792422180</t>
+          <t>tb000123454090779584011892</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>my_table_2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>db0001234540493227</t>
+          <t>db0001234540907795</t>
         </is>
       </c>
     </row>

--- a/Metadata/Metadata_Database_Table.xlsx
+++ b/Metadata/Metadata_Database_Table.xlsx
@@ -1,45 +1,452 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+  <si>
+    <t>admin_ID</t>
+  </si>
+  <si>
+    <t>admin_name</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>aaaaaaaa</t>
+  </si>
+  <si>
+    <t>11111111a</t>
+  </si>
+  <si>
+    <t>database_ID</t>
+  </si>
+  <si>
+    <t>database_name</t>
+  </si>
+  <si>
+    <t>database_admin_ID</t>
+  </si>
+  <si>
+    <t>db0001234540907795</t>
+  </si>
+  <si>
+    <t>db</t>
+  </si>
+  <si>
+    <t>db0001234525337633</t>
+  </si>
+  <si>
+    <t>db_2</t>
+  </si>
+  <si>
+    <t>db0001234562810286</t>
+  </si>
+  <si>
+    <t>table_ID</t>
+  </si>
+  <si>
+    <t>table_name</t>
+  </si>
+  <si>
+    <t>tb000123454090779502614276</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>tb000123454090779566075700</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -48,93 +455,329 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -417,259 +1060,159 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>admin_ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>admin_name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>password</t>
-        </is>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:3">
+      <c r="A2">
         <v>12345</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>aaaaaaaa</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>11111111a</t>
-        </is>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>database_ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>database_name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>database_admin_ID</t>
-        </is>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>11111</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>tb_1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
         <v>12345</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>22222</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>tb_2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
         <v>12345</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>33333</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>tb_1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12346</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>db0001234540907795</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>db</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>db0001234525337633</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>db_2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
         <v>12345</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="33.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="36.6666666666667" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>table_ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>table_name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>database_ID</t>
-        </is>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>999999</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="n">
-        <v>11111</v>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>888888</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="n">
-        <v>11111</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>777777</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="n">
-        <v>22222</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>tb000123454090779539588310</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>my_table</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>db0001234540907795</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>tb000123454090779584011892</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>my_table_2</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>db0001234540907795</t>
-        </is>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Metadata/Metadata_Database_Table.xlsx
+++ b/Metadata/Metadata_Database_Table.xlsx
@@ -1,45 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -47,94 +62,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -213,6 +152,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -247,6 +187,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -281,20 +222,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -416,194 +353,176 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>admin_ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>admin_name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>password</t>
-        </is>
+      <c r="A1" t="str">
+        <v>admin_ID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>admin_name</v>
+      </c>
+      <c r="C1" t="str">
+        <v>password</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="str">
         <v>12345</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>aaaaaaaa</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>11111111a</t>
-        </is>
+      <c r="B2" t="str">
+        <v>aaaaaaaa</v>
+      </c>
+      <c r="C2" t="str">
+        <v>11111111a</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>database_ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>database_name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>database_admin_ID</t>
-        </is>
+      <c r="A1" t="str">
+        <v>database_ID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>database_name</v>
+      </c>
+      <c r="C1" t="str">
+        <v>database_admin_ID</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>db0001234582916680</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>db</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="A2" t="str">
+        <v>db0001234582916680</v>
+      </c>
+      <c r="B2" t="str">
+        <v>db</v>
+      </c>
+      <c r="C2" t="str">
         <v>12345</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>db0001234552183885</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>dbdb</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12345</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>table_ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>table_name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>database_ID</t>
-        </is>
+      <c r="A1" t="str">
+        <v>table_ID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>table_name</v>
+      </c>
+      <c r="C1" t="str">
+        <v>database_ID</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>tb000123458291668066478623</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>address</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>db0001234582916680</t>
-        </is>
+      <c r="A2" t="str">
+        <v>tb000123458291668066478623</v>
+      </c>
+      <c r="B2" t="str">
+        <v>address</v>
+      </c>
+      <c r="C2" t="str">
+        <v>db0001234582916680</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>tb000123458291668079220782</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>student</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>db0001234582916680</t>
-        </is>
+      <c r="A3" t="str">
+        <v>tb000123458291668079220782</v>
+      </c>
+      <c r="B3" t="str">
+        <v>student</v>
+      </c>
+      <c r="C3" t="str">
+        <v>db0001234582916680</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>tb000123452632809061153598</v>
+      </c>
+      <c r="B4" t="str">
+        <v>address</v>
+      </c>
+      <c r="C4" t="str">
+        <v>db0001234526328090</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
+  </ignoredErrors>
 </worksheet>
 </file>